--- a/preprocessing data/ages_getjob.xlsx
+++ b/preprocessing data/ages_getjob.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\analytics contest\preprocessing data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01926187-21AC-4035-B70B-2242BBB1A950}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CEEF7DA-F761-4BDB-8FE8-4B482544F0F6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2145" yWindow="1515" windowWidth="21600" windowHeight="11385" xr2:uid="{026B95CA-FCAA-494B-8436-A7572AE4394D}"/>
+    <workbookView xWindow="600" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{026B95CA-FCAA-494B-8436-A7572AE4394D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -439,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E880B0B4-67E0-474D-B894-54FEC81B34C7}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -452,136 +452,199 @@
     <col min="5" max="5" width="13.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>2013</v>
+        <v>3596</v>
       </c>
       <c r="B2">
+        <v>1072</v>
+      </c>
+      <c r="C2">
+        <v>3909</v>
+      </c>
+      <c r="D2">
+        <v>428</v>
+      </c>
+      <c r="F2">
         <v>3596</v>
       </c>
-      <c r="C2">
+      <c r="G2">
+        <v>3422</v>
+      </c>
+      <c r="H2">
+        <v>10934</v>
+      </c>
+      <c r="I2">
+        <v>10546</v>
+      </c>
+      <c r="J2">
+        <v>10438</v>
+      </c>
+      <c r="K2">
+        <v>62247</v>
+      </c>
+      <c r="L2">
+        <v>37560</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>3422</v>
+      </c>
+      <c r="B3">
+        <v>1219</v>
+      </c>
+      <c r="C3">
+        <v>4018</v>
+      </c>
+      <c r="D3">
+        <v>504</v>
+      </c>
+      <c r="F3">
         <v>1072</v>
       </c>
-      <c r="D2">
+      <c r="G3">
+        <v>1219</v>
+      </c>
+      <c r="H3">
+        <v>99070</v>
+      </c>
+      <c r="I3">
+        <v>94014</v>
+      </c>
+      <c r="J3">
+        <v>90947</v>
+      </c>
+      <c r="K3">
+        <v>275270</v>
+      </c>
+      <c r="L3">
+        <v>152710</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>10934</v>
+      </c>
+      <c r="B4">
+        <v>99070</v>
+      </c>
+      <c r="C4">
+        <v>986</v>
+      </c>
+      <c r="D4">
+        <v>78264</v>
+      </c>
+      <c r="F4">
         <v>3909</v>
       </c>
-      <c r="E2">
+      <c r="G4">
+        <v>4018</v>
+      </c>
+      <c r="H4">
+        <v>986</v>
+      </c>
+      <c r="I4">
+        <v>901</v>
+      </c>
+      <c r="J4">
+        <v>824</v>
+      </c>
+      <c r="K4">
+        <v>106238</v>
+      </c>
+      <c r="L4">
+        <v>59641</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>10546</v>
+      </c>
+      <c r="B5">
+        <v>94014</v>
+      </c>
+      <c r="C5">
+        <v>901</v>
+      </c>
+      <c r="D5">
+        <v>74360</v>
+      </c>
+      <c r="F5">
         <v>428</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2014</v>
-      </c>
-      <c r="B3">
-        <v>3422</v>
-      </c>
-      <c r="C3">
-        <v>1219</v>
-      </c>
-      <c r="D3">
-        <v>4018</v>
-      </c>
-      <c r="E3">
+      <c r="G5">
         <v>504</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2015</v>
-      </c>
-      <c r="B4">
-        <v>10934</v>
-      </c>
-      <c r="C4">
-        <v>99070</v>
-      </c>
-      <c r="D4">
-        <v>986</v>
-      </c>
-      <c r="E4">
+      <c r="H5">
         <v>78264</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>2016</v>
-      </c>
-      <c r="B5">
-        <v>10546</v>
-      </c>
-      <c r="C5">
-        <v>94014</v>
-      </c>
-      <c r="D5">
-        <v>901</v>
-      </c>
-      <c r="E5">
+      <c r="I5">
         <v>74360</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="J5">
+        <v>73323</v>
+      </c>
+      <c r="K5">
+        <v>4059</v>
+      </c>
+      <c r="L5">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>2017</v>
+        <v>10438</v>
       </c>
       <c r="B6">
-        <v>10438</v>
+        <v>90947</v>
       </c>
       <c r="C6">
-        <v>90947</v>
+        <v>824</v>
       </c>
       <c r="D6">
-        <v>824</v>
-      </c>
-      <c r="E6">
         <v>73323</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>2018</v>
+        <v>62247</v>
       </c>
       <c r="B7">
-        <v>62247</v>
+        <v>275270</v>
       </c>
       <c r="C7">
-        <v>275270</v>
+        <v>106238</v>
       </c>
       <c r="D7">
-        <v>106238</v>
-      </c>
-      <c r="E7">
         <v>4059</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>2019</v>
+        <v>37560</v>
       </c>
       <c r="B8">
-        <v>37560</v>
+        <v>152710</v>
       </c>
       <c r="C8">
-        <v>152710</v>
+        <v>59641</v>
       </c>
       <c r="D8">
-        <v>59641</v>
-      </c>
-      <c r="E8">
         <v>2106</v>
       </c>
     </row>
